--- a/Running projects/NASTP Sierra 3rd Floor/PO/001- Purchase order- for Ms Pipe saeed sons.xlsx
+++ b/Running projects/NASTP Sierra 3rd Floor/PO/001- Purchase order- for Ms Pipe saeed sons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\NASTP Sierra 3rd Floor\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FD4F08-8059-4103-B32E-C81CBF7E4805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB6D627-8946-4001-990F-5960058544E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$49</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$24:$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>S No.</t>
   </si>
@@ -107,22 +107,13 @@
     <t>Supply of M.S Pipe for the project (Daraz Office NASTP Building  Karachi)</t>
   </si>
   <si>
-    <t>M.S Pipe 2"</t>
-  </si>
-  <si>
-    <t>M.S Pipe 3"</t>
-  </si>
-  <si>
     <t>M.S Pipe 2-1/2"</t>
   </si>
   <si>
-    <t>M.S Pipe 4"</t>
-  </si>
-  <si>
     <t>Discount  1%</t>
   </si>
   <si>
-    <t>PO # 139</t>
+    <t>PO # 142</t>
   </si>
 </sst>
 </file>
@@ -483,13 +474,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>536615</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>190537</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -845,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:H44"/>
+  <dimension ref="A7:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A16" sqref="A16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -876,7 +867,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="F13" s="10">
-        <v>45311</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -886,7 +877,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1"/>
       <c r="F15" s="10"/>
@@ -955,217 +946,148 @@
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
     </row>
-    <row r="25" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>1</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C25" s="6">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="26">
-        <v>1860</v>
+        <v>1075</v>
       </c>
       <c r="F25" s="25">
-        <f t="shared" ref="F25:F28" si="0">E25*C25</f>
-        <v>613800</v>
+        <f t="shared" ref="F25" si="0">E25*C25</f>
+        <v>129000</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>2</v>
-      </c>
-      <c r="B26" s="22" t="s">
+    <row r="26" spans="1:8" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="19">
+        <f>SUM(F25:F25)</f>
+        <v>129000</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="6">
-        <v>80</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="26">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="20">
+        <f>F26*1%</f>
         <v>1290</v>
       </c>
-      <c r="F26" s="25">
-        <f t="shared" si="0"/>
-        <v>103200</v>
-      </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>3</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="6">
-        <v>20</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="26">
-        <v>1075</v>
-      </c>
-      <c r="F27" s="25">
-        <f t="shared" si="0"/>
-        <v>21500</v>
-      </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-    </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>4</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="6">
-        <v>100</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="26">
-        <v>645</v>
-      </c>
-      <c r="F28" s="25">
-        <f t="shared" si="0"/>
-        <v>64500</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-    </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="19">
-        <f>SUM(F25:F28)</f>
-        <v>803000</v>
-      </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="20">
-        <f>F29*1%</f>
-        <v>8030</v>
-      </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="21">
-        <f>F29-F30</f>
-        <v>794970</v>
-      </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="32" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="21">
+        <f>F26-F27</f>
+        <v>127710</v>
+      </c>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+    </row>
+    <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+    </row>
+    <row r="39" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
-    </row>
-    <row r="42" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-    </row>
-    <row r="43" spans="1:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43"/>
-    </row>
-    <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A35:F36"/>
+    <mergeCell ref="A32:F33"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A17:F17"/>
   </mergeCells>
